--- a/CHI1/Predictions/CHI1_Round20.xlsx
+++ b/CHI1/Predictions/CHI1_Round20.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshaas/Desktop/Python Scripts/CHI1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0F34CFA-BF95-0D4D-946E-CA53C10471A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FFF4D4C1-478A-0E41-9CF4-782AC7BBCE39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="28040" windowHeight="15840"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHI1_Round20" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -733,7 +733,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1091,18 +1091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="229" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="36" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
